--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ly9-Ly9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ly9-Ly9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>39.29069633333334</v>
+        <v>0.1213926666666667</v>
       </c>
       <c r="H2">
-        <v>117.872089</v>
+        <v>0.364178</v>
       </c>
       <c r="I2">
-        <v>0.5148826177110138</v>
+        <v>0.001287165941041644</v>
       </c>
       <c r="J2">
-        <v>0.514882617711014</v>
+        <v>0.001287165941041644</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>39.29069633333334</v>
+        <v>0.1213926666666667</v>
       </c>
       <c r="N2">
-        <v>117.872089</v>
+        <v>0.364178</v>
       </c>
       <c r="O2">
-        <v>0.5148826177110138</v>
+        <v>0.001287165941041644</v>
       </c>
       <c r="P2">
-        <v>0.514882617711014</v>
+        <v>0.001287165941041644</v>
       </c>
       <c r="Q2">
-        <v>1543.758818358214</v>
+        <v>0.01473617952044444</v>
       </c>
       <c r="R2">
-        <v>13893.82936522392</v>
+        <v>0.132625615684</v>
       </c>
       <c r="S2">
-        <v>0.265104110020946</v>
+        <v>1.656796159777622E-06</v>
       </c>
       <c r="T2">
-        <v>0.2651041100209461</v>
+        <v>1.656796159777621E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -575,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>39.29069633333334</v>
+        <v>0.1213926666666667</v>
       </c>
       <c r="H3">
-        <v>117.872089</v>
+        <v>0.364178</v>
       </c>
       <c r="I3">
-        <v>0.5148826177110138</v>
+        <v>0.001287165941041644</v>
       </c>
       <c r="J3">
-        <v>0.514882617711014</v>
+        <v>0.001287165941041644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -608,60 +611,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.019311</v>
+        <v>49.81377800000001</v>
       </c>
       <c r="N3">
-        <v>111.057933</v>
+        <v>149.441334</v>
       </c>
       <c r="O3">
-        <v>0.485117382288986</v>
+        <v>0.5281916955681801</v>
       </c>
       <c r="P3">
-        <v>0.4851173822889861</v>
+        <v>0.52819169556818</v>
       </c>
       <c r="Q3">
-        <v>1454.514506970226</v>
+        <v>6.047027348161333</v>
       </c>
       <c r="R3">
-        <v>13090.63056273204</v>
+        <v>54.423246133452</v>
       </c>
       <c r="S3">
-        <v>0.2497785076900678</v>
+        <v>0.0006798703608763984</v>
       </c>
       <c r="T3">
-        <v>0.2497785076900678</v>
+        <v>0.0006798703608763981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>37.019311</v>
+        <v>0.1213926666666667</v>
       </c>
       <c r="H4">
-        <v>111.057933</v>
+        <v>0.364178</v>
       </c>
       <c r="I4">
-        <v>0.485117382288986</v>
+        <v>0.001287165941041644</v>
       </c>
       <c r="J4">
-        <v>0.4851173822889861</v>
+        <v>0.001287165941041644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -670,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.29069633333334</v>
+        <v>44.37486566666666</v>
       </c>
       <c r="N4">
-        <v>117.872089</v>
+        <v>133.124597</v>
       </c>
       <c r="O4">
-        <v>0.5148826177110138</v>
+        <v>0.4705211384907783</v>
       </c>
       <c r="P4">
-        <v>0.514882617711014</v>
+        <v>0.4705211384907783</v>
       </c>
       <c r="Q4">
-        <v>1454.514506970226</v>
+        <v>5.386783276251777</v>
       </c>
       <c r="R4">
-        <v>13090.63056273204</v>
+        <v>48.481049486266</v>
       </c>
       <c r="S4">
-        <v>0.2497785076900678</v>
+        <v>0.0006056387840054685</v>
       </c>
       <c r="T4">
-        <v>0.2497785076900678</v>
+        <v>0.0006056387840054684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -699,61 +702,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>49.81377800000001</v>
+      </c>
+      <c r="H5">
+        <v>149.441334</v>
+      </c>
+      <c r="I5">
+        <v>0.5281916955681801</v>
+      </c>
+      <c r="J5">
+        <v>0.52819169556818</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1213926666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.364178</v>
+      </c>
+      <c r="O5">
+        <v>0.001287165941041644</v>
+      </c>
+      <c r="P5">
+        <v>0.001287165941041644</v>
+      </c>
+      <c r="Q5">
+        <v>6.047027348161333</v>
+      </c>
+      <c r="R5">
+        <v>54.423246133452</v>
+      </c>
+      <c r="S5">
+        <v>0.0006798703608763984</v>
+      </c>
+      <c r="T5">
+        <v>0.0006798703608763981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>49.81377800000001</v>
+      </c>
+      <c r="H6">
+        <v>149.441334</v>
+      </c>
+      <c r="I6">
+        <v>0.5281916955681801</v>
+      </c>
+      <c r="J6">
+        <v>0.52819169556818</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>49.81377800000001</v>
+      </c>
+      <c r="N6">
+        <v>149.441334</v>
+      </c>
+      <c r="O6">
+        <v>0.5281916955681801</v>
+      </c>
+      <c r="P6">
+        <v>0.52819169556818</v>
+      </c>
+      <c r="Q6">
+        <v>2481.412478633285</v>
+      </c>
+      <c r="R6">
+        <v>22332.71230769956</v>
+      </c>
+      <c r="S6">
+        <v>0.2789864672671891</v>
+      </c>
+      <c r="T6">
+        <v>0.278986467267189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>49.81377800000001</v>
+      </c>
+      <c r="H7">
+        <v>149.441334</v>
+      </c>
+      <c r="I7">
+        <v>0.5281916955681801</v>
+      </c>
+      <c r="J7">
+        <v>0.52819169556818</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>44.37486566666666</v>
+      </c>
+      <c r="N7">
+        <v>133.124597</v>
+      </c>
+      <c r="O7">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="P7">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="Q7">
+        <v>2210.479707099155</v>
+      </c>
+      <c r="R7">
+        <v>19894.3173638924</v>
+      </c>
+      <c r="S7">
+        <v>0.2485253579401147</v>
+      </c>
+      <c r="T7">
+        <v>0.2485253579401146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>44.37486566666666</v>
+      </c>
+      <c r="H8">
+        <v>133.124597</v>
+      </c>
+      <c r="I8">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="J8">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1213926666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.364178</v>
+      </c>
+      <c r="O8">
+        <v>0.001287165941041644</v>
+      </c>
+      <c r="P8">
+        <v>0.001287165941041644</v>
+      </c>
+      <c r="Q8">
+        <v>5.386783276251777</v>
+      </c>
+      <c r="R8">
+        <v>48.481049486266</v>
+      </c>
+      <c r="S8">
+        <v>0.0006056387840054685</v>
+      </c>
+      <c r="T8">
+        <v>0.0006056387840054684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>37.019311</v>
-      </c>
-      <c r="H5">
-        <v>111.057933</v>
-      </c>
-      <c r="I5">
-        <v>0.485117382288986</v>
-      </c>
-      <c r="J5">
-        <v>0.4851173822889861</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>37.019311</v>
-      </c>
-      <c r="N5">
-        <v>111.057933</v>
-      </c>
-      <c r="O5">
-        <v>0.485117382288986</v>
-      </c>
-      <c r="P5">
-        <v>0.4851173822889861</v>
-      </c>
-      <c r="Q5">
-        <v>1370.429386914721</v>
-      </c>
-      <c r="R5">
-        <v>12333.86448223249</v>
-      </c>
-      <c r="S5">
-        <v>0.2353388745989182</v>
-      </c>
-      <c r="T5">
-        <v>0.2353388745989183</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>44.37486566666666</v>
+      </c>
+      <c r="H9">
+        <v>133.124597</v>
+      </c>
+      <c r="I9">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="J9">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>49.81377800000001</v>
+      </c>
+      <c r="N9">
+        <v>149.441334</v>
+      </c>
+      <c r="O9">
+        <v>0.5281916955681801</v>
+      </c>
+      <c r="P9">
+        <v>0.52819169556818</v>
+      </c>
+      <c r="Q9">
+        <v>2210.479707099155</v>
+      </c>
+      <c r="R9">
+        <v>19894.3173638924</v>
+      </c>
+      <c r="S9">
+        <v>0.2485253579401147</v>
+      </c>
+      <c r="T9">
+        <v>0.2485253579401146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>44.37486566666666</v>
+      </c>
+      <c r="H10">
+        <v>133.124597</v>
+      </c>
+      <c r="I10">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="J10">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>44.37486566666666</v>
+      </c>
+      <c r="N10">
+        <v>133.124597</v>
+      </c>
+      <c r="O10">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="P10">
+        <v>0.4705211384907783</v>
+      </c>
+      <c r="Q10">
+        <v>1969.128702934712</v>
+      </c>
+      <c r="R10">
+        <v>17722.15832641241</v>
+      </c>
+      <c r="S10">
+        <v>0.2213901417666582</v>
+      </c>
+      <c r="T10">
+        <v>0.2213901417666581</v>
       </c>
     </row>
   </sheetData>
